--- a/homework/05.classes-and-object/classes-and-object.xlsx
+++ b/homework/05.classes-and-object/classes-and-object.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\java-course\java-course\homework\05.classes-and-object\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java-course\java-course\homework\05.classes-and-object\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,13 +59,13 @@
     <t xml:space="preserve">Направете програма, която приема 10 числа и извежда на екрана най-дългата нарасваща поредица от тях. </t>
   </si>
   <si>
-    <t>Пример: 11,12,13,14, 1, 5, 2, 8, 10, 9 - трябва да изведе   11,12,13,14; 1,2,3, 2, 7, 9, 13, 16, 18, 1 - трябва да изведе  11,12,13,14</t>
-  </si>
-  <si>
     <t>Направете програма която приема изречение и брои колко думи има в него</t>
   </si>
   <si>
     <t>Направете програма, която приема дума от 5 символа. След това програмата приема 5 отделни символа. Изведете дали може да бъде образувана думата от 5те символа които сте въвели</t>
+  </si>
+  <si>
+    <t>Пример: 11,12,13,14, 1, 5, 2, 8, 10, 9 - трябва да изведе   11,12,13,14; 1,2,3, 2, 7, 9, 13, 16, 18, 1 - трябва да изведе   7, 9, 13, 16, 18</t>
   </si>
 </sst>
 </file>
@@ -406,8 +406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,17 +471,17 @@
         <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
